--- a/Jogos_do_Dia/2023-08-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>League</t>
   </si>
@@ -133,6 +133,9 @@
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -151,27 +154,30 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
+    <t>Olimpija</t>
+  </si>
+  <si>
     <t>BATE</t>
   </si>
   <si>
-    <t>Olimpija</t>
-  </si>
-  <si>
     <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>Deportivo Municipal</t>
   </si>
   <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
     <t>Sampaio Corrêa</t>
   </si>
   <si>
-    <t>Mirassol</t>
-  </si>
-  <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
@@ -181,27 +187,33 @@
     <t>River Plate</t>
   </si>
   <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>Leones</t>
+  </si>
+  <si>
     <t>Dnipro-1</t>
   </si>
   <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
     <t>Aris</t>
   </si>
   <si>
-    <t>Ludogorets</t>
-  </si>
-  <si>
     <t>Zrinjski</t>
   </si>
   <si>
     <t>ADT</t>
   </si>
   <si>
+    <t>Avaí</t>
+  </si>
+  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
-    <t>Avaí</t>
-  </si>
-  <si>
     <t>Fluminense</t>
   </si>
   <si>
@@ -209,6 +221,12 @@
   </si>
   <si>
     <t>Internacional</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
+    <t>Deportes Quindío</t>
   </si>
 </sst>
 </file>
@@ -570,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,25 +709,25 @@
         <v>45139</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="H2">
-        <v>3.64</v>
+        <v>3.9</v>
       </c>
       <c r="I2">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -724,10 +742,10 @@
         <v>3.72</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P2">
         <v>1.34</v>
@@ -781,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -798,79 +816,79 @@
         <v>45139</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="H3">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
         <v>1.75</v>
       </c>
       <c r="P3">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R3">
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W3">
+        <v>2.33</v>
+      </c>
+      <c r="X3">
         <v>1.33</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
       <c r="Y3">
-        <v>0.65</v>
+        <v>2.56</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AA3">
-        <v>0.65</v>
+        <v>4.35</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -882,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -905,79 +923,79 @@
         <v>45139</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>2.95</v>
+        <v>3.26</v>
       </c>
       <c r="H4">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="I4">
         <v>2.19</v>
       </c>
       <c r="J4">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O4">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P4">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q4">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R4">
         <v>1.83</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T4">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X4">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>2.56</v>
+        <v>0.65</v>
       </c>
       <c r="Z4">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.35</v>
+        <v>0.65</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1012,25 +1030,25 @@
         <v>45139</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G5">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="H5">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="I5">
-        <v>4.16</v>
+        <v>4.61</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1096,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1119,25 +1137,25 @@
         <v>45139</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G6">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="I6">
-        <v>2.89</v>
+        <v>3.09</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1152,10 +1170,10 @@
         <v>3.4</v>
       </c>
       <c r="N6">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="O6">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="P6">
         <v>1.42</v>
@@ -1226,103 +1244,103 @@
         <v>45139</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="H7">
-        <v>2.78</v>
+        <v>3.92</v>
       </c>
       <c r="I7">
-        <v>3.21</v>
+        <v>5.52</v>
       </c>
       <c r="J7">
+        <v>1.08</v>
+      </c>
+      <c r="K7">
+        <v>8.4</v>
+      </c>
+      <c r="L7">
+        <v>1.41</v>
+      </c>
+      <c r="M7">
+        <v>2.71</v>
+      </c>
+      <c r="N7">
+        <v>2.2</v>
+      </c>
+      <c r="O7">
+        <v>1.6</v>
+      </c>
+      <c r="P7">
+        <v>1.48</v>
+      </c>
+      <c r="Q7">
+        <v>2.45</v>
+      </c>
+      <c r="R7">
+        <v>2.25</v>
+      </c>
+      <c r="S7">
+        <v>1.58</v>
+      </c>
+      <c r="T7">
+        <v>1.13</v>
+      </c>
+      <c r="U7">
+        <v>1.24</v>
+      </c>
+      <c r="V7">
+        <v>2.2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>0.89</v>
+      </c>
+      <c r="Y7">
+        <v>1.79</v>
+      </c>
+      <c r="Z7">
         <v>1.1</v>
       </c>
-      <c r="K7">
-        <v>6.9</v>
-      </c>
-      <c r="L7">
-        <v>1.5</v>
-      </c>
-      <c r="M7">
-        <v>2.43</v>
-      </c>
-      <c r="N7">
+      <c r="AA7">
+        <v>2.89</v>
+      </c>
+      <c r="AB7">
+        <v>1.4</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>3.8</v>
+      </c>
+      <c r="AE7">
+        <v>1.18</v>
+      </c>
+      <c r="AF7">
+        <v>1.3</v>
+      </c>
+      <c r="AG7">
+        <v>1.6</v>
+      </c>
+      <c r="AH7">
+        <v>1.93</v>
+      </c>
+      <c r="AI7">
         <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>1.5</v>
-      </c>
-      <c r="P7">
-        <v>1.58</v>
-      </c>
-      <c r="Q7">
-        <v>2.2</v>
-      </c>
-      <c r="R7">
-        <v>2.2</v>
-      </c>
-      <c r="S7">
-        <v>1.62</v>
-      </c>
-      <c r="T7">
-        <v>1.27</v>
-      </c>
-      <c r="U7">
-        <v>1.32</v>
-      </c>
-      <c r="V7">
-        <v>1.62</v>
-      </c>
-      <c r="W7">
-        <v>1.3</v>
-      </c>
-      <c r="X7">
-        <v>1.56</v>
-      </c>
-      <c r="Y7">
-        <v>1.8</v>
-      </c>
-      <c r="Z7">
-        <v>1.22</v>
-      </c>
-      <c r="AA7">
-        <v>3.02</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1333,103 +1351,103 @@
         <v>45139</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G8">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="H8">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="I8">
-        <v>5.15</v>
+        <v>4.24</v>
       </c>
       <c r="J8">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K8">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="L8">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="N8">
+        <v>2.4</v>
+      </c>
+      <c r="O8">
+        <v>1.5</v>
+      </c>
+      <c r="P8">
+        <v>1.58</v>
+      </c>
+      <c r="Q8">
         <v>2.2</v>
       </c>
-      <c r="O8">
+      <c r="R8">
+        <v>2.2</v>
+      </c>
+      <c r="S8">
+        <v>1.62</v>
+      </c>
+      <c r="T8">
+        <v>1.27</v>
+      </c>
+      <c r="U8">
+        <v>1.32</v>
+      </c>
+      <c r="V8">
+        <v>1.62</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>1.56</v>
+      </c>
+      <c r="Y8">
+        <v>1.8</v>
+      </c>
+      <c r="Z8">
+        <v>1.22</v>
+      </c>
+      <c r="AA8">
+        <v>3.02</v>
+      </c>
+      <c r="AB8">
         <v>1.6</v>
       </c>
-      <c r="P8">
-        <v>1.48</v>
-      </c>
-      <c r="Q8">
-        <v>2.45</v>
-      </c>
-      <c r="R8">
-        <v>2.25</v>
-      </c>
-      <c r="S8">
-        <v>1.58</v>
-      </c>
-      <c r="T8">
-        <v>1.13</v>
-      </c>
-      <c r="U8">
-        <v>1.24</v>
-      </c>
-      <c r="V8">
-        <v>2.2</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>0.89</v>
-      </c>
-      <c r="Y8">
-        <v>1.79</v>
-      </c>
-      <c r="Z8">
-        <v>1.1</v>
-      </c>
-      <c r="AA8">
-        <v>2.89</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1440,25 +1458,25 @@
         <v>45139</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1473,10 +1491,10 @@
         <v>2.79</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="O9">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P9">
         <v>1.47</v>
@@ -1547,25 +1565,25 @@
         <v>45139</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G10">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="H10">
-        <v>3.31</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
-        <v>5.11</v>
+        <v>4.5</v>
       </c>
       <c r="J10">
         <v>1.05</v>
@@ -1580,10 +1598,10 @@
         <v>3.4</v>
       </c>
       <c r="N10">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="P10">
         <v>1.4</v>
@@ -1654,25 +1672,25 @@
         <v>45139</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <v>1.6</v>
       </c>
       <c r="H11">
-        <v>3.72</v>
+        <v>3.95</v>
       </c>
       <c r="I11">
-        <v>4.81</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1687,10 +1705,10 @@
         <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1751,6 +1769,220 @@
       </c>
       <c r="AI11">
         <v>2.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12">
+        <v>2.44</v>
+      </c>
+      <c r="H12">
+        <v>3.08</v>
+      </c>
+      <c r="I12">
+        <v>3.31</v>
+      </c>
+      <c r="J12">
+        <v>1.08</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>1.4</v>
+      </c>
+      <c r="M12">
+        <v>2.75</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>1.6</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+      <c r="Q12">
+        <v>2.5</v>
+      </c>
+      <c r="R12">
+        <v>1.91</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
+        <v>1.28</v>
+      </c>
+      <c r="V12">
+        <v>1.57</v>
+      </c>
+      <c r="W12">
+        <v>1.67</v>
+      </c>
+      <c r="X12">
+        <v>0.89</v>
+      </c>
+      <c r="Y12">
+        <v>1.52</v>
+      </c>
+      <c r="Z12">
+        <v>1.31</v>
+      </c>
+      <c r="AA12">
+        <v>2.83</v>
+      </c>
+      <c r="AB12">
+        <v>1.75</v>
+      </c>
+      <c r="AC12">
+        <v>7.5</v>
+      </c>
+      <c r="AD12">
+        <v>2.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.15</v>
+      </c>
+      <c r="AF12">
+        <v>1.29</v>
+      </c>
+      <c r="AG12">
+        <v>1.55</v>
+      </c>
+      <c r="AH12">
+        <v>1.85</v>
+      </c>
+      <c r="AI12">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>1.96</v>
+      </c>
+      <c r="H13">
+        <v>3.34</v>
+      </c>
+      <c r="I13">
+        <v>3.7</v>
+      </c>
+      <c r="J13">
+        <v>1.07</v>
+      </c>
+      <c r="K13">
+        <v>7.5</v>
+      </c>
+      <c r="L13">
+        <v>1.36</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>1.68</v>
+      </c>
+      <c r="P13">
+        <v>1.4</v>
+      </c>
+      <c r="Q13">
+        <v>2.75</v>
+      </c>
+      <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>1.22</v>
+      </c>
+      <c r="U13">
+        <v>1.25</v>
+      </c>
+      <c r="V13">
+        <v>1.66</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0.91</v>
+      </c>
+      <c r="Y13">
+        <v>1.68</v>
+      </c>
+      <c r="Z13">
+        <v>1.17</v>
+      </c>
+      <c r="AA13">
+        <v>2.85</v>
+      </c>
+      <c r="AB13">
+        <v>1.68</v>
+      </c>
+      <c r="AC13">
+        <v>7.6</v>
+      </c>
+      <c r="AD13">
+        <v>2.56</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1.44</v>
+      </c>
+      <c r="AH13">
+        <v>1.75</v>
+      </c>
+      <c r="AI13">
+        <v>2.21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -160,24 +160,24 @@
     <t>Panathinaikos</t>
   </si>
   <si>
+    <t>BATE</t>
+  </si>
+  <si>
     <t>Olimpija</t>
   </si>
   <si>
-    <t>BATE</t>
-  </si>
-  <si>
     <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>Deportivo Municipal</t>
   </si>
   <si>
+    <t>Sampaio Corrêa</t>
+  </si>
+  <si>
     <t>Mirassol</t>
   </si>
   <si>
-    <t>Sampaio Corrêa</t>
-  </si>
-  <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
@@ -196,22 +196,22 @@
     <t>Dnipro-1</t>
   </si>
   <si>
+    <t>Aris</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Aris</t>
-  </si>
-  <si>
     <t>Zrinjski</t>
   </si>
   <si>
     <t>ADT</t>
   </si>
   <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
     <t>Avaí</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
   </si>
   <si>
     <t>Fluminense</t>
@@ -721,13 +721,13 @@
         <v>59</v>
       </c>
       <c r="G2">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H2">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="I2">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -742,10 +742,10 @@
         <v>3.72</v>
       </c>
       <c r="N2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O2">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1.34</v>
@@ -784,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG2">
         <v>2.3</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -828,67 +828,67 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
       <c r="H3">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="J3">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
         <v>1.75</v>
       </c>
       <c r="P3">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R3">
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T3">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X3">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>2.56</v>
+        <v>0.65</v>
       </c>
       <c r="Z3">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.35</v>
+        <v>0.65</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -900,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -935,91 +935,91 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="H4">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="I4">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N4">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="P4">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R4">
         <v>1.83</v>
       </c>
       <c r="S4">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W4">
+        <v>2.33</v>
+      </c>
+      <c r="X4">
         <v>1.33</v>
       </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
       <c r="Y4">
-        <v>0.65</v>
+        <v>2.56</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AA4">
-        <v>0.65</v>
+        <v>4.35</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1042,13 +1042,13 @@
         <v>62</v>
       </c>
       <c r="G5">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="H5">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="I5">
-        <v>4.61</v>
+        <v>3.7</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1063,10 +1063,10 @@
         <v>2.61</v>
       </c>
       <c r="N5">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O5">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P5">
         <v>1.51</v>
@@ -1105,13 +1105,13 @@
         <v>2.1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE5">
         <v>1.47</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1149,13 +1149,13 @@
         <v>63</v>
       </c>
       <c r="G6">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="H6">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="I6">
-        <v>3.09</v>
+        <v>2.55</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1170,10 +1170,10 @@
         <v>3.4</v>
       </c>
       <c r="N6">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="O6">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="P6">
         <v>1.42</v>
@@ -1256,91 +1256,91 @@
         <v>64</v>
       </c>
       <c r="G7">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="H7">
-        <v>3.92</v>
+        <v>2.89</v>
       </c>
       <c r="I7">
-        <v>5.52</v>
+        <v>3.8</v>
       </c>
       <c r="J7">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K7">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="L7">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M7">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="N7">
+        <v>2.56</v>
+      </c>
+      <c r="O7">
+        <v>1.45</v>
+      </c>
+      <c r="P7">
+        <v>1.58</v>
+      </c>
+      <c r="Q7">
         <v>2.2</v>
       </c>
-      <c r="O7">
+      <c r="R7">
+        <v>2.2</v>
+      </c>
+      <c r="S7">
+        <v>1.62</v>
+      </c>
+      <c r="T7">
+        <v>1.27</v>
+      </c>
+      <c r="U7">
+        <v>1.32</v>
+      </c>
+      <c r="V7">
+        <v>1.62</v>
+      </c>
+      <c r="W7">
+        <v>1.3</v>
+      </c>
+      <c r="X7">
+        <v>1.56</v>
+      </c>
+      <c r="Y7">
+        <v>1.8</v>
+      </c>
+      <c r="Z7">
+        <v>1.22</v>
+      </c>
+      <c r="AA7">
+        <v>3.02</v>
+      </c>
+      <c r="AB7">
         <v>1.6</v>
       </c>
-      <c r="P7">
-        <v>1.48</v>
-      </c>
-      <c r="Q7">
-        <v>2.45</v>
-      </c>
-      <c r="R7">
-        <v>2.25</v>
-      </c>
-      <c r="S7">
-        <v>1.58</v>
-      </c>
-      <c r="T7">
-        <v>1.13</v>
-      </c>
-      <c r="U7">
-        <v>1.24</v>
-      </c>
-      <c r="V7">
-        <v>2.2</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>0.89</v>
-      </c>
-      <c r="Y7">
-        <v>1.79</v>
-      </c>
-      <c r="Z7">
-        <v>1.1</v>
-      </c>
-      <c r="AA7">
-        <v>2.89</v>
-      </c>
-      <c r="AB7">
-        <v>1.4</v>
-      </c>
       <c r="AC7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF7">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AG7">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AH7">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AI7">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1363,91 +1363,91 @@
         <v>65</v>
       </c>
       <c r="G8">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="H8">
-        <v>3.13</v>
+        <v>3.55</v>
       </c>
       <c r="I8">
-        <v>4.24</v>
+        <v>5.2</v>
       </c>
       <c r="J8">
+        <v>1.08</v>
+      </c>
+      <c r="K8">
+        <v>8.4</v>
+      </c>
+      <c r="L8">
+        <v>1.41</v>
+      </c>
+      <c r="M8">
+        <v>2.71</v>
+      </c>
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>1.57</v>
+      </c>
+      <c r="P8">
+        <v>1.48</v>
+      </c>
+      <c r="Q8">
+        <v>2.45</v>
+      </c>
+      <c r="R8">
+        <v>2.25</v>
+      </c>
+      <c r="S8">
+        <v>1.58</v>
+      </c>
+      <c r="T8">
+        <v>1.13</v>
+      </c>
+      <c r="U8">
+        <v>1.24</v>
+      </c>
+      <c r="V8">
+        <v>2.2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0.89</v>
+      </c>
+      <c r="Y8">
+        <v>1.79</v>
+      </c>
+      <c r="Z8">
         <v>1.1</v>
       </c>
-      <c r="K8">
-        <v>6.9</v>
-      </c>
-      <c r="L8">
-        <v>1.5</v>
-      </c>
-      <c r="M8">
-        <v>2.45</v>
-      </c>
-      <c r="N8">
+      <c r="AA8">
+        <v>2.89</v>
+      </c>
+      <c r="AB8">
+        <v>1.4</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>3.8</v>
+      </c>
+      <c r="AE8">
+        <v>1.18</v>
+      </c>
+      <c r="AF8">
+        <v>1.3</v>
+      </c>
+      <c r="AG8">
+        <v>1.6</v>
+      </c>
+      <c r="AH8">
+        <v>1.93</v>
+      </c>
+      <c r="AI8">
         <v>2.4</v>
-      </c>
-      <c r="O8">
-        <v>1.5</v>
-      </c>
-      <c r="P8">
-        <v>1.58</v>
-      </c>
-      <c r="Q8">
-        <v>2.2</v>
-      </c>
-      <c r="R8">
-        <v>2.2</v>
-      </c>
-      <c r="S8">
-        <v>1.62</v>
-      </c>
-      <c r="T8">
-        <v>1.27</v>
-      </c>
-      <c r="U8">
-        <v>1.32</v>
-      </c>
-      <c r="V8">
-        <v>1.62</v>
-      </c>
-      <c r="W8">
-        <v>1.3</v>
-      </c>
-      <c r="X8">
-        <v>1.56</v>
-      </c>
-      <c r="Y8">
-        <v>1.8</v>
-      </c>
-      <c r="Z8">
-        <v>1.22</v>
-      </c>
-      <c r="AA8">
-        <v>3.02</v>
-      </c>
-      <c r="AB8">
-        <v>1.6</v>
-      </c>
-      <c r="AC8">
-        <v>7</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
-      </c>
-      <c r="AE8">
-        <v>1.17</v>
-      </c>
-      <c r="AF8">
-        <v>1.28</v>
-      </c>
-      <c r="AG8">
-        <v>1.61</v>
-      </c>
-      <c r="AH8">
-        <v>1.95</v>
-      </c>
-      <c r="AI8">
-        <v>2.41</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1470,13 +1470,13 @@
         <v>66</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="I9">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1577,13 +1577,13 @@
         <v>67</v>
       </c>
       <c r="G10">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H10">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J10">
         <v>1.05</v>
@@ -1598,10 +1598,10 @@
         <v>3.4</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O10">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P10">
         <v>1.4</v>
@@ -1684,13 +1684,13 @@
         <v>68</v>
       </c>
       <c r="G11">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="H11">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1705,10 +1705,10 @@
         <v>3.5</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O11">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1791,13 +1791,13 @@
         <v>69</v>
       </c>
       <c r="G12">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="H12">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
-        <v>3.31</v>
+        <v>2.9</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -1812,7 +1812,7 @@
         <v>2.75</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="O12">
         <v>1.6</v>
@@ -1898,13 +1898,13 @@
         <v>70</v>
       </c>
       <c r="G13">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="H13">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>3.7</v>
+        <v>2.99</v>
       </c>
       <c r="J13">
         <v>1.07</v>
@@ -1919,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O13">
         <v>1.68</v>
